--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/A16ECB40-DB26-49D5-BFC6-95701AFFB22B/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9169854-8276-1D4F-B51D-A27442247B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{E9169854-8276-1D4F-B51D-A27442247B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D3036C-1F02-734A-88A6-DCBF40FFC31B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>面積</t>
+  </si>
+  <si>
+    <t>竣工年</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -404,44 +416,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6015AEAC-E338-6542-B37D-89B5B5F9F52C}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2500</v>
+      </c>
       <c r="C3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1800</v>
       </c>
       <c r="C4">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5600</v>
       </c>
       <c r="C5">
-        <v>1800</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>4700</v>
+      </c>
+      <c r="C6">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>8100</v>
+      </c>
+      <c r="C7">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
